--- a/PRODUTOS/Perfumaria/Perfumaria - Papel higienico.xlsx
+++ b/PRODUTOS/Perfumaria/Perfumaria - Papel higienico.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,368 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Papel Higiênico Hyris Folha Dupla Neutro 12 Rolos</t>
+          <t>Papel Higienico Fancy Balance Fd C/12 Rolos 20mts</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9840f03b-1ac8-4a0a-ae9e-56505c4ac7eb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Folha Dupla 20m Com 12 Rolos Neve</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74a27253-f5d0-4490-9559-a038ca1fae32.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Folha Dupla Com 12 Rolos Fofopel</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/058be578-d9f5-4149-9aa0-7d2a82e87779.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Best Lite Folha Dupla 20m Neutro 12 Rolos</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03abcc4c-7c61-4021-977e-81ae1ff615a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Folha Dupla Fancy 12 Rolos</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab43240e-009c-4527-8dfd-64d4c70452f9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Papel Higienico Fofinho Natural Fd Leve 12 Pag 11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7b90556-7868-46c8-9c90-fbbd297a2e4b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Folha Dupla Neutro Toque Da Seda 30m Neve Pacote Leve 16 Pague 15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edd45f49-bc50-475e-b09e-e0439ca22dc9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Fofopel Folha Dupla Leve 24 Pague 21</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/444f074b-a834-4729-814d-ef87b96c4968.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Papel Higienico Neve Supreme 20mts Com 4 Unidades</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1ec65f6-7f89-479f-ae8b-a0bbb494ad7e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Papel Higiênico Folha Dupla Pacote Com 16 Rolos Fofopel</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5aa47dd-8865-4da4-9ed6-332f13a2ef7f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Papel Higienico Neve Leve24 Pague21</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 55,99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a09efcae-0df3-439a-8e34-a3b3366d0d44.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Papel Higienico Fancy Balance Fd C/12 Rolos 20mts</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa3d3e75-8479-405c-a971-43e4c6b74603.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Papel Higienico Fofopel Fardo Com 4 Unidades</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c535ce0-a668-4f7d-a5bf-3d54fe8a4ef6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Papel higienico</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Papel Higienico Fancy Neutro Com 4 Unidades</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c915e82b-4f0f-49b9-84de-646e927652b3.jpg</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896076001934</t>
         </is>
       </c>
     </row>
